--- a/Code/Results/Cases/Case_9_47/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_47/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006044707369249</v>
+        <v>1.005974865922285</v>
       </c>
       <c r="D2">
-        <v>1.024483570368778</v>
+        <v>1.023968687097866</v>
       </c>
       <c r="E2">
-        <v>1.019957561425268</v>
+        <v>1.019943870011987</v>
       </c>
       <c r="F2">
-        <v>1.027823615940483</v>
+        <v>1.027802507341969</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044651533998863</v>
+        <v>1.044493464707635</v>
       </c>
       <c r="J2">
-        <v>1.028046113276329</v>
+        <v>1.027978326655955</v>
       </c>
       <c r="K2">
-        <v>1.035612030860484</v>
+        <v>1.035103901597941</v>
       </c>
       <c r="L2">
-        <v>1.031145685022878</v>
+        <v>1.03113217510158</v>
       </c>
       <c r="M2">
-        <v>1.038908468966726</v>
+        <v>1.038887634846725</v>
       </c>
       <c r="N2">
-        <v>1.01260692558367</v>
+        <v>1.014178140344281</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039365832878626</v>
+        <v>1.039349344043347</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036251041116332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035900548700157</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02128253822775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010704731481575</v>
+        <v>1.010336156903759</v>
       </c>
       <c r="D3">
-        <v>1.027621114107858</v>
+        <v>1.026776716967302</v>
       </c>
       <c r="E3">
-        <v>1.023675262191217</v>
+        <v>1.023414213430873</v>
       </c>
       <c r="F3">
-        <v>1.031352078253784</v>
+        <v>1.03113316681598</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045532196722727</v>
+        <v>1.045230039028575</v>
       </c>
       <c r="J3">
-        <v>1.030907768412408</v>
+        <v>1.030548959641351</v>
       </c>
       <c r="K3">
-        <v>1.03791236665579</v>
+        <v>1.037078075372468</v>
       </c>
       <c r="L3">
-        <v>1.034013916836513</v>
+        <v>1.03375602009794</v>
       </c>
       <c r="M3">
-        <v>1.041598923573726</v>
+        <v>1.041382606699663</v>
       </c>
       <c r="N3">
-        <v>1.013631175659381</v>
+        <v>1.014905176985053</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041495147517701</v>
+        <v>1.041323947431178</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037874918679921</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03729351810794</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021720580482859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013658533883727</v>
+        <v>1.013103535944215</v>
       </c>
       <c r="D4">
-        <v>1.029612217744943</v>
+        <v>1.028560969198036</v>
       </c>
       <c r="E4">
-        <v>1.026038008164837</v>
+        <v>1.025622504995962</v>
       </c>
       <c r="F4">
-        <v>1.033597787027687</v>
+        <v>1.033255444851397</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046079414760822</v>
+        <v>1.04568676075617</v>
       </c>
       <c r="J4">
-        <v>1.032719190528466</v>
+        <v>1.032177889168384</v>
       </c>
       <c r="K4">
-        <v>1.03936591774303</v>
+        <v>1.038326488350161</v>
       </c>
       <c r="L4">
-        <v>1.035832014676453</v>
+        <v>1.035421219623391</v>
       </c>
       <c r="M4">
-        <v>1.043306946048765</v>
+        <v>1.042968413141865</v>
       </c>
       <c r="N4">
-        <v>1.014278795526256</v>
+        <v>1.015365534637209</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042846929663288</v>
+        <v>1.042579004384712</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03890360768857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038177235353417</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02199500977196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014891038275625</v>
+        <v>1.014258710159388</v>
       </c>
       <c r="D5">
-        <v>1.030446012678538</v>
+        <v>1.029308803760942</v>
       </c>
       <c r="E5">
-        <v>1.027025734099683</v>
+        <v>1.026546118878352</v>
       </c>
       <c r="F5">
-        <v>1.034536640698415</v>
+        <v>1.034143087077956</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046307027667665</v>
+        <v>1.04587669957274</v>
       </c>
       <c r="J5">
-        <v>1.033476184549395</v>
+        <v>1.032858988977759</v>
       </c>
       <c r="K5">
-        <v>1.039974612114853</v>
+        <v>1.038849846833075</v>
       </c>
       <c r="L5">
-        <v>1.036591861340574</v>
+        <v>1.036117533097312</v>
       </c>
       <c r="M5">
-        <v>1.044020756853971</v>
+        <v>1.043631464141484</v>
       </c>
       <c r="N5">
-        <v>1.014550049251175</v>
+        <v>1.015558515347771</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043411861005044</v>
+        <v>1.043103763097324</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03934118495457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038555183503195</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022110070748458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015103172771209</v>
+        <v>1.014457316669851</v>
       </c>
       <c r="D6">
-        <v>1.030592566929009</v>
+        <v>1.029440448707908</v>
       </c>
       <c r="E6">
-        <v>1.027196298681373</v>
+        <v>1.026705432841142</v>
       </c>
       <c r="F6">
-        <v>1.03469793961763</v>
+        <v>1.034295406977398</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046348444565227</v>
+        <v>1.045911510030017</v>
       </c>
       <c r="J6">
-        <v>1.033608615262502</v>
+        <v>1.032978134838581</v>
       </c>
       <c r="K6">
-        <v>1.040083348611696</v>
+        <v>1.038943779080167</v>
       </c>
       <c r="L6">
-        <v>1.036724171231273</v>
+        <v>1.036238691098019</v>
       </c>
       <c r="M6">
-        <v>1.044144284766475</v>
+        <v>1.043746090014883</v>
       </c>
       <c r="N6">
-        <v>1.014598462342929</v>
+        <v>1.015592974367013</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043509624666069</v>
+        <v>1.043194481458867</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039426822530342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038631223073376</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022131465710945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013691294156117</v>
+        <v>1.013144789560735</v>
       </c>
       <c r="D7">
-        <v>1.029642468011218</v>
+        <v>1.028597078884881</v>
       </c>
       <c r="E7">
-        <v>1.026065559803636</v>
+        <v>1.025657456614014</v>
       </c>
       <c r="F7">
-        <v>1.033621614871871</v>
+        <v>1.033285103845935</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046091949213692</v>
+        <v>1.04570203632841</v>
       </c>
       <c r="J7">
-        <v>1.032745177920814</v>
+        <v>1.032212154055755</v>
       </c>
       <c r="K7">
-        <v>1.039392942419264</v>
+        <v>1.038359301716687</v>
       </c>
       <c r="L7">
-        <v>1.035856354906843</v>
+        <v>1.035452874092195</v>
       </c>
       <c r="M7">
-        <v>1.043327637767045</v>
+        <v>1.042994869641135</v>
       </c>
       <c r="N7">
-        <v>1.014290762173836</v>
+        <v>1.015403811330079</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042863305717688</v>
+        <v>1.042599942869561</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038942850757265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038222572512722</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022005300637551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007653268279386</v>
+        <v>1.007513686649605</v>
       </c>
       <c r="D8">
-        <v>1.025576158845223</v>
+        <v>1.024973308080958</v>
       </c>
       <c r="E8">
-        <v>1.021241302461387</v>
+        <v>1.021171332895137</v>
       </c>
       <c r="F8">
-        <v>1.029038342887285</v>
+        <v>1.028971882579201</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044965897998646</v>
+        <v>1.044770353052202</v>
       </c>
       <c r="J8">
-        <v>1.02904177104072</v>
+        <v>1.028906155459919</v>
       </c>
       <c r="K8">
-        <v>1.036420480609524</v>
+        <v>1.035825300537182</v>
       </c>
       <c r="L8">
-        <v>1.032141033078765</v>
+        <v>1.032071962698655</v>
       </c>
       <c r="M8">
-        <v>1.039838828855384</v>
+        <v>1.039773206557158</v>
       </c>
       <c r="N8">
-        <v>1.012966963210528</v>
+        <v>1.01452445526663</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040102151135341</v>
+        <v>1.040050215455582</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.036845653925208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036435872854187</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021448850418564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9964905146416922</v>
+        <v>0.9970919005451613</v>
       </c>
       <c r="D9">
-        <v>1.01806722030694</v>
+        <v>1.018271522444643</v>
       </c>
       <c r="E9">
-        <v>1.01237232499643</v>
+        <v>1.012915573490961</v>
       </c>
       <c r="F9">
-        <v>1.020642262280424</v>
+        <v>1.021066624828209</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042788118887451</v>
+        <v>1.042945693520634</v>
       </c>
       <c r="J9">
-        <v>1.022167813479119</v>
+        <v>1.0227477709038</v>
       </c>
       <c r="K9">
-        <v>1.030873815940106</v>
+        <v>1.031074952834751</v>
       </c>
       <c r="L9">
-        <v>1.025267809188129</v>
+        <v>1.025802523237553</v>
       </c>
       <c r="M9">
-        <v>1.033409081208237</v>
+        <v>1.033826913200196</v>
       </c>
       <c r="N9">
-        <v>1.010499809766956</v>
+        <v>1.012789165203684</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035013416063098</v>
+        <v>1.035344104535066</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032920565308081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033073580155436</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020378601088976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9888058357655672</v>
+        <v>0.9899828459173027</v>
       </c>
       <c r="D10">
-        <v>1.012931618856282</v>
+        <v>1.013739517388211</v>
       </c>
       <c r="E10">
-        <v>1.006351994442273</v>
+        <v>1.007372177171543</v>
       </c>
       <c r="F10">
-        <v>1.015008393959316</v>
+        <v>1.015814623079248</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041256928644093</v>
+        <v>1.041679011215344</v>
       </c>
       <c r="J10">
-        <v>1.017470736909567</v>
+        <v>1.018599614921364</v>
       </c>
       <c r="K10">
-        <v>1.027071249400463</v>
+        <v>1.027865054008445</v>
       </c>
       <c r="L10">
-        <v>1.020607501008781</v>
+        <v>1.021609588323995</v>
       </c>
       <c r="M10">
-        <v>1.029111853438855</v>
+        <v>1.029904092086276</v>
       </c>
       <c r="N10">
-        <v>1.008824347945471</v>
+        <v>1.011743777743778</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031664281270351</v>
+        <v>1.032291252860098</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030248786345119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030822549715823</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019654801195429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.986417403696528</v>
+        <v>0.9878091390225533</v>
       </c>
       <c r="D11">
-        <v>1.011454182785849</v>
+        <v>1.01247149725847</v>
       </c>
       <c r="E11">
-        <v>1.004870311665464</v>
+        <v>1.006064219821697</v>
       </c>
       <c r="F11">
-        <v>1.014009658521912</v>
+        <v>1.014955023817816</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040942736099752</v>
+        <v>1.041450026412022</v>
       </c>
       <c r="J11">
-        <v>1.016366358479379</v>
+        <v>1.017698015779261</v>
       </c>
       <c r="K11">
-        <v>1.026163275146074</v>
+        <v>1.027161990535359</v>
       </c>
       <c r="L11">
-        <v>1.019700961815016</v>
+        <v>1.02087267286273</v>
       </c>
       <c r="M11">
-        <v>1.028672122531579</v>
+        <v>1.02960031566501</v>
       </c>
       <c r="N11">
-        <v>1.008540999434759</v>
+        <v>1.011803475186932</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031755900629386</v>
+        <v>1.032490090619539</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029639877172077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030361723422165</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019562129887169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9859156466850276</v>
+        <v>0.9873433865871912</v>
       </c>
       <c r="D12">
-        <v>1.011205258660483</v>
+        <v>1.012255462854946</v>
       </c>
       <c r="E12">
-        <v>1.004764333418253</v>
+        <v>1.005982803842969</v>
       </c>
       <c r="F12">
-        <v>1.014189455049508</v>
+        <v>1.015155032462866</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.04096757827845</v>
+        <v>1.041482655582836</v>
       </c>
       <c r="J12">
-        <v>1.016328278537949</v>
+        <v>1.017693226816195</v>
       </c>
       <c r="K12">
-        <v>1.026120886814211</v>
+        <v>1.027151574692829</v>
       </c>
       <c r="L12">
-        <v>1.019800822022836</v>
+        <v>1.020996273424976</v>
       </c>
       <c r="M12">
-        <v>1.029049764665583</v>
+        <v>1.029997533759035</v>
       </c>
       <c r="N12">
-        <v>1.008616277737702</v>
+        <v>1.011967376267519</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032383180723489</v>
+        <v>1.033132598047051</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029609906847106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030354359155186</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019607585475186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.986852568586754</v>
+        <v>0.9881613324077791</v>
       </c>
       <c r="D13">
-        <v>1.011906585979534</v>
+        <v>1.012840102322788</v>
       </c>
       <c r="E13">
-        <v>1.005728172484108</v>
+        <v>1.006841388569102</v>
       </c>
       <c r="F13">
-        <v>1.015313801592203</v>
+        <v>1.01619635692791</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041270284658683</v>
+        <v>1.041726630848213</v>
       </c>
       <c r="J13">
-        <v>1.017129266513543</v>
+        <v>1.018380828116636</v>
       </c>
       <c r="K13">
-        <v>1.026765894983635</v>
+        <v>1.027682150190356</v>
       </c>
       <c r="L13">
-        <v>1.020702778371033</v>
+        <v>1.021795083993017</v>
       </c>
       <c r="M13">
-        <v>1.030110309574413</v>
+        <v>1.030976687269814</v>
       </c>
       <c r="N13">
-        <v>1.00898323954499</v>
+        <v>1.012190546008084</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033499904306838</v>
+        <v>1.034184790306386</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030063445015905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030726739033886</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019766670803156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9881561176822341</v>
+        <v>0.9893132899996723</v>
       </c>
       <c r="D14">
-        <v>1.012826786220682</v>
+        <v>1.013612671742035</v>
       </c>
       <c r="E14">
-        <v>1.006882148708024</v>
+        <v>1.007864950083302</v>
       </c>
       <c r="F14">
-        <v>1.016523253116376</v>
+        <v>1.017302545619585</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041607364441095</v>
+        <v>1.041993599009976</v>
       </c>
       <c r="J14">
-        <v>1.018066425275411</v>
+        <v>1.019173807302383</v>
       </c>
       <c r="K14">
-        <v>1.027527452501389</v>
+        <v>1.028298997676113</v>
       </c>
       <c r="L14">
-        <v>1.021692234622179</v>
+        <v>1.022656830012024</v>
       </c>
       <c r="M14">
-        <v>1.031156719727907</v>
+        <v>1.031921926170449</v>
       </c>
       <c r="N14">
-        <v>1.009371073364799</v>
+        <v>1.012374813603379</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034501131955731</v>
+        <v>1.035105958364882</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030603331936588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031164437869054</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019929994631662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9887955565050009</v>
+        <v>0.9898828728241997</v>
       </c>
       <c r="D15">
-        <v>1.013266533885709</v>
+        <v>1.013984503409411</v>
       </c>
       <c r="E15">
-        <v>1.007409256576512</v>
+        <v>1.008332930307645</v>
       </c>
       <c r="F15">
-        <v>1.01704388364814</v>
+        <v>1.017776211394983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041754283368877</v>
+        <v>1.04210934819051</v>
       </c>
       <c r="J15">
-        <v>1.018488037567628</v>
+        <v>1.019529000827596</v>
       </c>
       <c r="K15">
-        <v>1.027871963123287</v>
+        <v>1.028576934724595</v>
       </c>
       <c r="L15">
-        <v>1.022121626075589</v>
+        <v>1.023028328197761</v>
       </c>
       <c r="M15">
-        <v>1.031581196033917</v>
+        <v>1.032300393737455</v>
       </c>
       <c r="N15">
-        <v>1.009533649335063</v>
+        <v>1.012439505649626</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03487431010341</v>
+        <v>1.035442755815508</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030852821894631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031367421500677</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019997908734027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9918657383683902</v>
+        <v>0.992654201216391</v>
       </c>
       <c r="D16">
-        <v>1.015302644720671</v>
+        <v>1.015727387602573</v>
       </c>
       <c r="E16">
-        <v>1.009771722141649</v>
+        <v>1.010447426263588</v>
       </c>
       <c r="F16">
-        <v>1.019241801122099</v>
+        <v>1.019776236779772</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042356760883331</v>
+        <v>1.042583285323897</v>
       </c>
       <c r="J16">
-        <v>1.020328014318267</v>
+        <v>1.021084600395006</v>
       </c>
       <c r="K16">
-        <v>1.029365111793733</v>
+        <v>1.029782507637615</v>
       </c>
       <c r="L16">
-        <v>1.023930592198517</v>
+        <v>1.024594445599652</v>
       </c>
       <c r="M16">
-        <v>1.033236433810761</v>
+        <v>1.033761718366081</v>
       </c>
       <c r="N16">
-        <v>1.010173749104129</v>
+        <v>1.012652357160697</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036143752507386</v>
+        <v>1.036558943574786</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031911722581978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032223284868875</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020259786726948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9935409212871289</v>
+        <v>0.9941926992013457</v>
       </c>
       <c r="D17">
-        <v>1.016385569344088</v>
+        <v>1.016672682611899</v>
       </c>
       <c r="E17">
-        <v>1.010982436504315</v>
+        <v>1.011547069804732</v>
       </c>
       <c r="F17">
-        <v>1.020291308031987</v>
+        <v>1.020736625630241</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042640675986878</v>
+        <v>1.042809682240331</v>
       </c>
       <c r="J17">
-        <v>1.021249595360318</v>
+        <v>1.021875887251581</v>
       </c>
       <c r="K17">
-        <v>1.030112272886601</v>
+        <v>1.03039456090982</v>
       </c>
       <c r="L17">
-        <v>1.024800605522015</v>
+        <v>1.025355621542947</v>
       </c>
       <c r="M17">
-        <v>1.033952671329119</v>
+        <v>1.034390579976391</v>
       </c>
       <c r="N17">
-        <v>1.0104619741127</v>
+        <v>1.012750525772525</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.0365804058048</v>
+        <v>1.036926568666616</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032442597323207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032658876373304</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020377633292466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.994146842700006</v>
+        <v>0.9947733296019936</v>
       </c>
       <c r="D18">
-        <v>1.016723263185955</v>
+        <v>1.016982305599194</v>
       </c>
       <c r="E18">
-        <v>1.011270890451769</v>
+        <v>1.011818627142899</v>
       </c>
       <c r="F18">
-        <v>1.020383034789534</v>
+        <v>1.020814066115127</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042665732667819</v>
+        <v>1.042827669367821</v>
       </c>
       <c r="J18">
-        <v>1.02143281365877</v>
+        <v>1.022035258897617</v>
       </c>
       <c r="K18">
-        <v>1.030259442680289</v>
+        <v>1.030514202410161</v>
       </c>
       <c r="L18">
-        <v>1.024897868921518</v>
+        <v>1.025436427104502</v>
       </c>
       <c r="M18">
-        <v>1.033858967463324</v>
+        <v>1.034282939745072</v>
       </c>
       <c r="N18">
-        <v>1.010458842726185</v>
+        <v>1.012706543318251</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03626770101905</v>
+        <v>1.036602917663587</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032534956530776</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032730640512968</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020369863062585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9938190526832629</v>
+        <v>0.9945057926815453</v>
       </c>
       <c r="D19">
-        <v>1.016426844140742</v>
+        <v>1.01674442621839</v>
       </c>
       <c r="E19">
-        <v>1.010749428366476</v>
+        <v>1.011352226309433</v>
       </c>
       <c r="F19">
-        <v>1.019619388256064</v>
+        <v>1.020093484549846</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042479512024498</v>
+        <v>1.042673605947128</v>
       </c>
       <c r="J19">
-        <v>1.020981613710707</v>
+        <v>1.021642132038924</v>
       </c>
       <c r="K19">
-        <v>1.029904871515547</v>
+        <v>1.030217227610009</v>
       </c>
       <c r="L19">
-        <v>1.024321594621831</v>
+        <v>1.024914332788329</v>
       </c>
       <c r="M19">
-        <v>1.033045070982777</v>
+        <v>1.033511429942455</v>
       </c>
       <c r="N19">
-        <v>1.010214880260243</v>
+        <v>1.012527522885195</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035297060114382</v>
+        <v>1.035665911675837</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032290690469174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032527722950316</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020259556318472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9908495428340944</v>
+        <v>0.9918366906897027</v>
       </c>
       <c r="D20">
-        <v>1.014316969096222</v>
+        <v>1.01493614467531</v>
       </c>
       <c r="E20">
-        <v>1.00795693772931</v>
+        <v>1.008817804230522</v>
       </c>
       <c r="F20">
-        <v>1.016505600056277</v>
+        <v>1.017184715132503</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041685525084731</v>
+        <v>1.04202283978015</v>
       </c>
       <c r="J20">
-        <v>1.01873781402879</v>
+        <v>1.019685962007748</v>
       </c>
       <c r="K20">
-        <v>1.02811265828992</v>
+        <v>1.028721347762117</v>
       </c>
       <c r="L20">
-        <v>1.021861302203974</v>
+        <v>1.022707355227926</v>
       </c>
       <c r="M20">
-        <v>1.030264297298842</v>
+        <v>1.030931975794355</v>
       </c>
       <c r="N20">
-        <v>1.009285306665779</v>
+        <v>1.011953045236169</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03256569066286</v>
+        <v>1.033094092554457</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031027468188446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031474420299014</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019851870068299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9848618110550176</v>
+        <v>0.986475817337323</v>
       </c>
       <c r="D21">
-        <v>1.010299513356103</v>
+        <v>1.011529779092347</v>
       </c>
       <c r="E21">
-        <v>1.003207378557761</v>
+        <v>1.004597830227606</v>
       </c>
       <c r="F21">
-        <v>1.011991751525899</v>
+        <v>1.013092782455135</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040440143060524</v>
+        <v>1.041053772934148</v>
       </c>
       <c r="J21">
-        <v>1.015006377757856</v>
+        <v>1.016550067222856</v>
       </c>
       <c r="K21">
-        <v>1.025088350687005</v>
+        <v>1.026295959826183</v>
       </c>
       <c r="L21">
-        <v>1.018128239887829</v>
+        <v>1.019492615749074</v>
       </c>
       <c r="M21">
-        <v>1.026749443098145</v>
+        <v>1.027830282234826</v>
       </c>
       <c r="N21">
-        <v>1.007932700468152</v>
+        <v>1.011494100821152</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029742698701996</v>
+        <v>1.030598122904116</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028892408773199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029763165464753</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019303744083253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.98104912365153</v>
+        <v>0.9830667270910229</v>
       </c>
       <c r="D22">
-        <v>1.00774486796</v>
+        <v>1.009368585260821</v>
       </c>
       <c r="E22">
-        <v>1.00021381953975</v>
+        <v>1.001945717758201</v>
       </c>
       <c r="F22">
-        <v>1.009177762931422</v>
+        <v>1.010550775889857</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039639661541891</v>
+        <v>1.040431679152728</v>
       </c>
       <c r="J22">
-        <v>1.012644227723379</v>
+        <v>1.014568559615636</v>
       </c>
       <c r="K22">
-        <v>1.023164443154829</v>
+        <v>1.024756705577553</v>
       </c>
       <c r="L22">
-        <v>1.015781041813036</v>
+        <v>1.017478727892524</v>
       </c>
       <c r="M22">
-        <v>1.024569573007301</v>
+        <v>1.025916077933386</v>
       </c>
       <c r="N22">
-        <v>1.007078497682269</v>
+        <v>1.011201982827629</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028017449267434</v>
+        <v>1.029083135695727</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027518492719895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028659940002409</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01895547790542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9830627141909487</v>
+        <v>0.9848475663696609</v>
       </c>
       <c r="D23">
-        <v>1.009086095381803</v>
+        <v>1.010486050067847</v>
       </c>
       <c r="E23">
-        <v>1.001792121251345</v>
+        <v>1.003326249572146</v>
       </c>
       <c r="F23">
-        <v>1.010663299680098</v>
+        <v>1.0118789814326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040057406847871</v>
+        <v>1.040747524972034</v>
       </c>
       <c r="J23">
-        <v>1.013886282995563</v>
+        <v>1.015591156763601</v>
       </c>
       <c r="K23">
-        <v>1.024170985822506</v>
+        <v>1.025544531846457</v>
       </c>
       <c r="L23">
-        <v>1.017016168789999</v>
+        <v>1.018520808483503</v>
       </c>
       <c r="M23">
-        <v>1.025718444648595</v>
+        <v>1.026911281739228</v>
       </c>
       <c r="N23">
-        <v>1.007524605099781</v>
+        <v>1.011304853058159</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.028926719654044</v>
+        <v>1.029870785073311</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028220453131798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029206315470821</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019129845083357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9908255260915997</v>
+        <v>0.9918193450748363</v>
       </c>
       <c r="D24">
-        <v>1.014279675667701</v>
+        <v>1.014904895330557</v>
       </c>
       <c r="E24">
-        <v>1.007898979099168</v>
+        <v>1.008766190176057</v>
       </c>
       <c r="F24">
-        <v>1.016415817148811</v>
+        <v>1.017099894109198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041656012165494</v>
+        <v>1.041997168189974</v>
       </c>
       <c r="J24">
-        <v>1.018681371886839</v>
+        <v>1.019635980397869</v>
       </c>
       <c r="K24">
-        <v>1.02806058043048</v>
+        <v>1.028675224299165</v>
       </c>
       <c r="L24">
-        <v>1.021788785388941</v>
+        <v>1.022641090914276</v>
       </c>
       <c r="M24">
-        <v>1.030160657656853</v>
+        <v>1.030833226709689</v>
       </c>
       <c r="N24">
-        <v>1.009250885630182</v>
+        <v>1.011925004554935</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032442482163261</v>
+        <v>1.032974781310678</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03096306181865</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031411564205861</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019832709558528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9994658796334536</v>
+        <v>0.9998510059205513</v>
       </c>
       <c r="D25">
-        <v>1.020078448981571</v>
+        <v>1.020053717069288</v>
       </c>
       <c r="E25">
-        <v>1.014732381857999</v>
+        <v>1.01509593841904</v>
       </c>
       <c r="F25">
-        <v>1.02286952134294</v>
+        <v>1.023150159368317</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043388567102624</v>
+        <v>1.043445061768754</v>
       </c>
       <c r="J25">
-        <v>1.024011232439282</v>
+        <v>1.0243833853513</v>
       </c>
       <c r="K25">
-        <v>1.032372868292407</v>
+        <v>1.032348501359545</v>
       </c>
       <c r="L25">
-        <v>1.027106221696943</v>
+        <v>1.02746434358271</v>
       </c>
       <c r="M25">
-        <v>1.035122895530435</v>
+        <v>1.035399422257738</v>
       </c>
       <c r="N25">
-        <v>1.0111668032079</v>
+        <v>1.013222152137076</v>
       </c>
       <c r="O25">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.036369794319901</v>
+        <v>1.036588647913798</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034009219919578</v>
+        <v>1.034005578123371</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.0206700659199</v>
       </c>
     </row>
   </sheetData>
